--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Aanat-Mtnr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Aanat-Mtnr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.794416</v>
+        <v>0.7644876666666667</v>
       </c>
       <c r="H2">
-        <v>5.383248</v>
+        <v>2.293463</v>
       </c>
       <c r="I2">
-        <v>0.3778342978496267</v>
+        <v>0.1573643627333495</v>
       </c>
       <c r="J2">
-        <v>0.3960481760147411</v>
+        <v>0.1573643627333495</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -570,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.1491979145973333</v>
+        <v>0.06356383670344444</v>
       </c>
       <c r="R2">
-        <v>1.342781231376</v>
+        <v>0.572074530331</v>
       </c>
       <c r="S2">
-        <v>0.3778342978496267</v>
+        <v>0.1573643627333495</v>
       </c>
       <c r="T2">
-        <v>0.3960481760147411</v>
+        <v>0.1573643627333495</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +584,10 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -608,10 +605,10 @@
         <v>0.386337</v>
       </c>
       <c r="I3">
-        <v>0.02711585442995219</v>
+        <v>0.0265082435623832</v>
       </c>
       <c r="J3">
-        <v>0.02842300116528294</v>
+        <v>0.0265082435623832</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -638,10 +635,10 @@
         <v>0.09636674226900001</v>
       </c>
       <c r="S3">
-        <v>0.02711585442995219</v>
+        <v>0.0265082435623832</v>
       </c>
       <c r="T3">
-        <v>0.02842300116528294</v>
+        <v>0.0265082435623832</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +646,31 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8588813333333333</v>
+        <v>1.975728666666667</v>
       </c>
       <c r="H4">
-        <v>2.576644</v>
+        <v>5.927186</v>
       </c>
       <c r="I4">
-        <v>0.180847041887807</v>
+        <v>0.406689729763258</v>
       </c>
       <c r="J4">
-        <v>0.1895649534331925</v>
+        <v>0.406689729763258</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -694,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.07141226104755555</v>
+        <v>0.1642732771424444</v>
       </c>
       <c r="R4">
-        <v>0.642710349428</v>
+        <v>1.478459494282</v>
       </c>
       <c r="S4">
-        <v>0.180847041887807</v>
+        <v>0.406689729763258</v>
       </c>
       <c r="T4">
-        <v>0.1895649534331925</v>
+        <v>0.406689729763258</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +708,31 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6552355</v>
+        <v>1.989078333333334</v>
       </c>
       <c r="H5">
-        <v>1.310471</v>
+        <v>5.967235000000001</v>
       </c>
       <c r="I5">
-        <v>0.1379671408796227</v>
+        <v>0.4094376639410093</v>
       </c>
       <c r="J5">
-        <v>0.09641198942909816</v>
+        <v>0.4094376639410093</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -756,78 +753,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.05447999247116666</v>
+        <v>0.1653832440772222</v>
       </c>
       <c r="R5">
-        <v>0.326879954827</v>
+        <v>1.488449196695</v>
       </c>
       <c r="S5">
-        <v>0.1379671408796227</v>
+        <v>0.4094376639410093</v>
       </c>
       <c r="T5">
-        <v>0.09641198942909816</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1.311902333333333</v>
-      </c>
-      <c r="H6">
-        <v>3.935707</v>
-      </c>
-      <c r="I6">
-        <v>0.2762356649529913</v>
-      </c>
-      <c r="J6">
-        <v>0.2895518799576852</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.08314566666666666</v>
-      </c>
-      <c r="N6">
-        <v>0.249437</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>0.1090789941065555</v>
-      </c>
-      <c r="R6">
-        <v>0.981710946959</v>
-      </c>
-      <c r="S6">
-        <v>0.2762356649529913</v>
-      </c>
-      <c r="T6">
-        <v>0.2895518799576852</v>
+        <v>0.4094376639410093</v>
       </c>
     </row>
   </sheetData>
